--- a/shared/model_dataset_comparisons_final_v3.xlsx
+++ b/shared/model_dataset_comparisons_final_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmet\ETH_Master\DeepLearning\feature_learning_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA845B-4383-443A-8720-095BDF130D97}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C0EEB-2E34-47E9-994F-8BBBCD58C91F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1673C2A9-9EEB-44C8-B69B-C436131CCEE5}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -582,10 +582,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="14">
-        <v>2.9276212118566E-2</v>
+        <v>2.8300692886114101E-2</v>
       </c>
       <c r="C5" s="14">
-        <v>3.3235324732959197E-2</v>
+        <v>3.1916651688516103E-2</v>
       </c>
       <c r="D5" s="14">
         <v>0.22077235877513801</v>
@@ -623,10 +623,10 @@
         <v>4.4848754443228202E-2</v>
       </c>
       <c r="C7" s="14">
-        <v>4.5977908745407997E-2</v>
+        <v>4.4077049195766403E-2</v>
       </c>
       <c r="D7" s="14">
-        <v>0.21926062405109401</v>
+        <v>0.21629538536071699</v>
       </c>
       <c r="E7" s="1"/>
       <c r="G7" s="4"/>
